--- a/data/tables/sources.xlsx
+++ b/data/tables/sources.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2B7FC-1328-468B-BBCE-08D4DE29EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E84E1-65ED-4F28-B7C8-9FD5DB578C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>source_id</t>
   </si>
@@ -52,6 +63,9 @@
   </si>
   <si>
     <t>Κωστάκης, Θανάσης (1986). Λεξικό της τσακώνικης διάλεκτου</t>
+  </si>
+  <si>
+    <t>Μαθήματα με τον Μακσίμ Κισιλιέρ</t>
   </si>
 </sst>
 </file>
@@ -107,8 +121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{2CEA5998-AB36-4F3F-B6A8-CBC43F694949}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9BFE6A19-9B22-404B-A2B4-47A087E2CDFE}" name="source_id"/>
     <tableColumn id="2" xr3:uid="{81F399DD-C578-40DC-94F8-01D977ED0433}" name="title"/>
@@ -381,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +461,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/tables/sources.xlsx
+++ b/data/tables/sources.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Μαθήματα με τον Μακσίμ Κισιλιέρ</t>
+          <t>Μαθήματα με τον Μαξίμ Κισιλιέρ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
